--- a/test_questions.xlsx
+++ b/test_questions.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Questions</t>
   </si>
@@ -56,6 +56,17 @@
   </si>
   <si>
     <t>next flu shot in comox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Why for someone over 65 if they the get the enhanced flu shot instead of the standard vaccine the full cost not just the difference between the two must be paid?
+</t>
+  </si>
+  <si>
+    <t>My girls are 5, can I get a flu shot at a pharmacy?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hi there, I realize there is no nasal spray flu shot this year but is there a different flu shot for children over 5?
+</t>
   </si>
 </sst>
 </file>
@@ -499,6 +510,21 @@
       <c r="Y15" s="3"/>
       <c r="Z15" s="3"/>
     </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
